--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-5-occ-entry.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-5-occ-entry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275D6F7-6531-A741-8E24-B6BB5AA146DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45BA867-FBD8-7146-B54D-AF33F58C6605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15340" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
@@ -1281,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{D02977E1-488B-9F48-A6C9-AB421B4FC449}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C09603FC-3352-834C-B4F5-F61FDEF58211}">
       <text>
         <r>
           <rPr>
@@ -1291,75 +1291,64 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">locationRemarks
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Definition: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: poly 20
-</t>
+          <t xml:space="preserve">habitat 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Defintion: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{C09603FC-3352-834C-B4F5-F61FDEF58211}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CD0706FF-5811-BF49-993E-D0941F3AA07B}">
       <text>
         <r>
           <rPr>
@@ -1369,90 +1358,96 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">habitat 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Defintion: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>if habitat information provided, place here. This includes whether it is in an aquatic vs terrestrial habitat (aquatic, in lake shoreline), the biogeoclimatic zone, shading conditions (e.g. in shade, shaded, in sun) , relative position at locality (e.g. base vs seep vs ledge), position on habitat objects (e.g. on log)</t>
+          <t xml:space="preserve">assTaxa
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Definition: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Isoetes echinospora</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{CD0706FF-5811-BF49-993E-D0941F3AA07B}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{83478F65-73DB-E043-B4E7-852EE638A389}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assTaxa
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assOcc
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1478,7 +1473,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">associated taxa. Use this field to denote scientific names of associated taxa. HOWEVER, only do this if that associated taxa has a collection number/ is a collected specimen. Otherwise leave blank. 
+          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
 </t>
         </r>
         <r>
@@ -1508,24 +1503,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Isoetes echinospora</t>
+          <t>"HJC-2863"</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{83478F65-73DB-E043-B4E7-852EE638A389}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{D02977E1-488B-9F48-A6C9-AB421B4FC449}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assOcc
-</t>
-        </r>
-        <r>
-          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">locationRemarks
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -1551,37 +1559,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">the occurrence numbers of taxa growing with this occurrence. HOWEVER, when entering data, only input data in this column if occurrence was growing with a specimen that was collected. Record the collection number here with HJC to indicate collected specimen
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Example: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"HJC-2863"</t>
+          <t xml:space="preserve">Use this column to denote information about plot location or polygon number, or miscellaneous notes that discuss the relative position or the state of the habitat/ site
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Example: poly 20
+</t>
         </r>
       </text>
     </comment>
@@ -2498,12 +2498,6 @@
     <t>idBy</t>
   </si>
   <si>
-    <t>assOcc</t>
-  </si>
-  <si>
-    <t>assTaxa</t>
-  </si>
-  <si>
     <t>vTaxonRank</t>
   </si>
   <si>
@@ -2631,6 +2625,12 @@
   </si>
   <si>
     <t>Saturna Island; Breezy Bay; near bay</t>
+  </si>
+  <si>
+    <t>assCollTaxa</t>
+  </si>
+  <si>
+    <t>assColl</t>
   </si>
 </sst>
 </file>
@@ -3107,10 +3107,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3129,10 +3129,10 @@
     <col min="12" max="12" width="5.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="16.83203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="3" customWidth="1"/>
     <col min="19" max="19" width="22.1640625" style="3" customWidth="1"/>
     <col min="20" max="21" width="8.5" style="3" customWidth="1"/>
     <col min="22" max="22" width="16.83203125" style="3" customWidth="1"/>
@@ -3153,64 +3153,64 @@
   <sheetData>
     <row r="1" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
@@ -3219,28 +3219,28 @@
         <v>5</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>6</v>
@@ -3255,35 +3255,35 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>1973039</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="L2"/>
+      <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2"/>
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
@@ -3293,35 +3293,35 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3">
         <v>19730311</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="L3"/>
+      <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
       <c r="AH3"/>
     </row>
     <row r="4" spans="1:34" ht="34" x14ac:dyDescent="0.2">
@@ -3330,31 +3330,31 @@
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
       </c>
       <c r="G4" s="3">
         <v>19730315</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="L4"/>
     </row>
@@ -3364,31 +3364,31 @@
       </c>
       <c r="B5"/>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3">
         <v>19730316</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="L5"/>
       <c r="AH5"/>
@@ -3399,35 +3399,35 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3">
         <v>19730316</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="L6"/>
       <c r="AF6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AH6"/>
     </row>
@@ -3444,11 +3444,11 @@
         <v>19730319</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L7"/>
-      <c r="O7" s="3" t="s">
-        <v>48</v>
+      <c r="R7" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
